--- a/data/trans_dic/ProblemasDormirP33b-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,96%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,52; 3,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,24; 4,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>1,12; 3,11</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,49%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>4,53; 9,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>11,76; 16,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>8,64; 12,47</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,53%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>13,16; 20,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>19,02; 26,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>17,29; 22,57</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,94%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>11,95; 21,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>18,6; 27,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>17,01; 23,51</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,45%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>2,16; 6,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>4,25; 9,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>4,03; 7,17</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,79%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>9,75; 16,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>19,08; 26,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>15,43; 20,83</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,44%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>13,22; 19,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>13,41; 26,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>14,49; 22,23</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,01%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>15,2; 21,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>26,95; 32,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>21,25; 26,07</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,97%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>12,01; 14,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>18,19; 21,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>15,85; 17,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProblemasDormirP33b-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,13</t>
+          <t>0; 0,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,52</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,11</t>
+          <t>0; 0,22</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 9,94</t>
+          <t>0; 0,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,76; 16,96</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,64; 12,47</t>
+          <t>0; 0,17</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,16; 20,57</t>
+          <t>0; 0,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,02; 26,22</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,29; 22,57</t>
+          <t>0; 0,21</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,95; 21,44</t>
+          <t>0; 0,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,6; 27,36</t>
+          <t>0; 0,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,01; 23,51</t>
+          <t>0; 0,22</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 6,89</t>
+          <t>0; 0,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,25; 9,08</t>
+          <t>0; 0,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,17</t>
+          <t>0; 0,25</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,75; 16,9</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,08; 26,29</t>
+          <t>0; 0,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,43; 20,83</t>
+          <t>0; 0,23</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,22; 19,61</t>
+          <t>0; 0,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,41; 26,89</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,49; 22,23</t>
+          <t>0; 0,12</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,2; 21,67</t>
+          <t>0; 0,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>26,95; 32,9</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,25; 26,07</t>
+          <t>0; 0,11</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,01; 14,66</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>18,19; 21,78</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>15,85; 17,94</t>
+          <t>0; 0,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProblemasDormirP33b-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +597,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +647,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -796,7 +797,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -846,7 +847,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con problemas para dormir a diario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1801</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1032</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1327</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2598</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1377</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1804</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1681</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1248</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1424</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2047</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1522</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1697</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1225</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1002</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1084</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1391</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1071</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1216</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1998</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1697</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1814</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2337</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1297</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1733</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1328</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1575</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/ProblemasDormirP33b-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Provincia-trans_dic.xlsx
@@ -557,17 +557,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,87%</t>
         </is>
       </c>
     </row>
@@ -580,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,5; 2,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,38; 4,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>1,02; 3,12</t>
         </is>
       </c>
     </row>
@@ -607,17 +607,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,26%</t>
         </is>
       </c>
     </row>
@@ -630,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>4,27; 10,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>11,73; 16,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>8,42; 12,37</t>
         </is>
       </c>
     </row>
@@ -657,17 +657,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,28%</t>
         </is>
       </c>
     </row>
@@ -680,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>12,73; 20,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>18,42; 26,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>16,71; 22,43</t>
         </is>
       </c>
     </row>
@@ -707,17 +707,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,75%</t>
         </is>
       </c>
     </row>
@@ -730,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>11,64; 21,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>10,86; 24,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>13,07; 21,64</t>
         </is>
       </c>
     </row>
@@ -757,17 +757,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,15%</t>
         </is>
       </c>
     </row>
@@ -780,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>2,45; 7,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>2,81; 8,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>3,39; 6,81</t>
         </is>
       </c>
     </row>
@@ -807,17 +807,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,54%</t>
         </is>
       </c>
     </row>
@@ -830,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>9,77; 16,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>18,8; 26,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>15,27; 20,49</t>
         </is>
       </c>
     </row>
@@ -857,17 +857,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,77%</t>
         </is>
       </c>
     </row>
@@ -880,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>12,77; 19,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>9,63; 26,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>10,86; 21,27</t>
         </is>
       </c>
     </row>
@@ -907,17 +907,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,3%</t>
         </is>
       </c>
     </row>
@@ -930,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>6,25; 20,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>27,14; 32,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>13,13; 25,58</t>
         </is>
       </c>
     </row>
@@ -957,17 +957,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,52%</t>
         </is>
       </c>
     </row>
@@ -980,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,64; 13,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>15,21; 20,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>13,47; 16,81</t>
         </is>
       </c>
     </row>
@@ -1104,17 +1104,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -1127,17 +1127,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3985</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7232</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11217</t>
         </is>
       </c>
     </row>
@@ -1150,17 +1150,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0; 1801</t>
+          <t>1553; 8212</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0; 1032</t>
+          <t>3990; 13445</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0; 1327</t>
+          <t>6155; 18742</t>
         </is>
       </c>
     </row>
@@ -1177,17 +1177,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>106</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -1200,17 +1200,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33941</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>72104</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>106045</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2598</t>
+          <t>22124; 54498</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1377</t>
+          <t>60418; 86673</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1804</t>
+          <t>86958; 127869</t>
         </is>
       </c>
     </row>
@@ -1250,17 +1250,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>128</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>189</t>
         </is>
       </c>
     </row>
@@ -1273,17 +1273,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50941</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>77315</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>128256</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1296,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0; 1681</t>
+          <t>40236; 66104</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0; 1248</t>
+          <t>64317; 90949</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0; 1424</t>
+          <t>111119; 149212</t>
         </is>
       </c>
     </row>
@@ -1323,17 +1323,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>153</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>203</t>
         </is>
       </c>
     </row>
@@ -1346,17 +1346,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50468</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>89456</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>139924</t>
         </is>
       </c>
     </row>
@@ -1369,17 +1369,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2047</t>
+          <t>36369; 66302</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1522</t>
+          <t>51660; 116508</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1697</t>
+          <t>102996; 170622</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1396,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -1419,17 +1419,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7350</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15175</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22526</t>
         </is>
       </c>
     </row>
@@ -1442,17 +1442,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0; 1225</t>
+          <t>4383; 12535</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0; 1002</t>
+          <t>7261; 20989</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0; 1084</t>
+          <t>14850; 29809</t>
         </is>
       </c>
     </row>
@@ -1469,17 +1469,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>124</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>178</t>
         </is>
       </c>
     </row>
@@ -1492,17 +1492,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34327</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>58074</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>92401</t>
         </is>
       </c>
     </row>
@@ -1515,17 +1515,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 1391</t>
+          <t>26347; 45346</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 1071</t>
+          <t>48328; 68493</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 1216</t>
+          <t>80415; 107901</t>
         </is>
       </c>
     </row>
@@ -1542,17 +1542,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>252</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>354</t>
         </is>
       </c>
     </row>
@@ -1565,17 +1565,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>99082</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>162789</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>261871</t>
         </is>
       </c>
     </row>
@@ -1588,17 +1588,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0; 1998</t>
+          <t>79700; 120296</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0; 1697</t>
+          <t>81767; 221374</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0; 1814</t>
+          <t>160077; 313407</t>
         </is>
       </c>
     </row>
@@ -1615,17 +1615,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>362</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>546</t>
         </is>
       </c>
     </row>
@@ -1638,17 +1638,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135620</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>215150</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>350770</t>
         </is>
       </c>
     </row>
@@ -1661,17 +1661,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0; 2337</t>
+          <t>58088; 190004</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0; 1297</t>
+          <t>194825; 235184</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0; 1733</t>
+          <t>216172; 421135</t>
         </is>
       </c>
     </row>
@@ -1688,17 +1688,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>495</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1177</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1672</t>
         </is>
       </c>
     </row>
@@ -1711,17 +1711,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>415715</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>697294</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1113009</t>
         </is>
       </c>
     </row>
@@ -1734,17 +1734,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>0; 1968</t>
+          <t>333670; 466160</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>0; 1328</t>
+          <t>564511; 760768</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0; 1575</t>
+          <t>966335; 1205571</t>
         </is>
       </c>
     </row>
